--- a/demands.xlsx
+++ b/demands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b424aae3153baf9/15.C57/Term Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b424aae3153baf9/15.C57/Term Project/Optimal-Placements-of-Rural-Mobile-Health-Clinics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F00F8FC9-24F4-458C-B36A-F1D8628BDBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F00F8FC9-24F4-458C-B36A-F1D8628BDBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB3C5DA-516F-4F68-9550-B449976E3BBD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F50E12F6-B997-40AB-B9E2-8A107A03A721}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>demand_ID</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>E. West 2</t>
+  </si>
+  <si>
+    <t>demand_id</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,24 +515,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>23</v>
